--- a/app/inputs/parameter_template_test.xlsx
+++ b/app/inputs/parameter_template_test.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DAAT\DAA_DES\app\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC39B0-0904-42D7-A121-07A3CACC225C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6391394-F425-4951-B718-C14FE51AAA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="3396" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{35F98327-5BE5-4FDA-9FE3-E1B3E020A414}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{35F98327-5BE5-4FDA-9FE3-E1B3E020A414}"/>
   </bookViews>
   <sheets>
-    <sheet name="callsign_registration_lookup" sheetId="1" r:id="rId1"/>
-    <sheet name="HEMS_ROTA" sheetId="2" r:id="rId2"/>
-    <sheet name="service_schedules_by_model" sheetId="5" r:id="rId3"/>
-    <sheet name="rota_start_end_months" sheetId="3" r:id="rId4"/>
-    <sheet name="upper_allowable_time_bounds" sheetId="6" r:id="rId5"/>
-    <sheet name="service_history" sheetId="4" r:id="rId6"/>
-    <sheet name="additional_parameters" sheetId="9" r:id="rId7"/>
-    <sheet name="allowable_values" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="scenario_details" sheetId="11" r:id="rId1"/>
+    <sheet name="callsign_registration_lookup" sheetId="1" r:id="rId2"/>
+    <sheet name="HEMS_ROTA" sheetId="2" r:id="rId3"/>
+    <sheet name="service_schedules_by_model" sheetId="5" r:id="rId4"/>
+    <sheet name="rota_start_end_months" sheetId="3" r:id="rId5"/>
+    <sheet name="upper_allowable_time_bounds" sheetId="6" r:id="rId6"/>
+    <sheet name="service_history" sheetId="4" r:id="rId7"/>
+    <sheet name="school_holidays" sheetId="10" r:id="rId8"/>
+    <sheet name="additional_parameters" sheetId="9" r:id="rId9"/>
+    <sheet name="allowable_values" sheetId="7" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>registration</t>
   </si>
@@ -241,9 +243,6 @@
     <t>vehicle_types</t>
   </si>
   <si>
-    <t>callisign_group</t>
-  </si>
-  <si>
     <t>number_of_runs</t>
   </si>
   <si>
@@ -269,6 +268,33 @@
   </si>
   <si>
     <t>activity_duration_multiplier</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>scenario_name</t>
+  </si>
+  <si>
+    <t>scenario_description</t>
+  </si>
+  <si>
+    <t>scenario_notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are no additional notes on this file. </t>
+  </si>
+  <si>
+    <t>Test parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a sample parameter file with some more varied parameters in. </t>
   </si>
 </sst>
 </file>
@@ -276,7 +302,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -304,12 +330,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -326,8 +346,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA400"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -350,72 +376,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="31">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFA400"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
@@ -432,7 +536,26 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFA400"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
@@ -440,7 +563,57 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFA400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFA400"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFA400"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFA400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
     </dxf>
@@ -458,7 +631,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
@@ -467,7 +640,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
@@ -476,7 +649,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
@@ -485,7 +658,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
@@ -514,7 +687,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
@@ -523,7 +696,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
@@ -535,7 +708,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
@@ -544,7 +717,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
@@ -553,7 +726,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
@@ -562,7 +735,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
@@ -571,7 +744,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
@@ -580,7 +753,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFA400"/>
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
@@ -599,55 +772,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6BA1A063-41E7-4CB5-905A-26CF430593FD}" name="Table2" displayName="Table2" ref="A1:E21" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A1:E21" xr:uid="{6BA1A063-41E7-4CB5-905A-26CF430593FD}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7D94D35B-078E-4674-B1CE-5BDADB0E40F1}" name="registration" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{87F85CD4-4878-4408-8F8D-C0C8BFCBB598}" name="callsign" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{BC63D893-06A9-4498-9E58-C77171B5E712}" name="model" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{8B732E60-F9A5-4A58-B09A-8856C6DCB309}" name="vehicle_type" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{66CD1ACD-7F6F-4500-B475-D2D6F6ED2307}" name="callisign_group" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C6890ADF-DE31-4FB3-8B89-A34CA7ACDA92}" name="Table9" displayName="Table9" ref="A1:B4" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="A1:B4" xr:uid="{A2150AC5-74CE-48A9-BFCB-F4F61346B053}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CFDC2D77-89A3-44BD-851D-339F9F6351DB}" name="what" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{0CE86003-31F9-48F0-9D78-5BF9FD4C6B91}" name="value" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D400418E-8DEA-4B99-B092-AE242FB87237}" name="Table6" displayName="Table6" ref="A1:C13" totalsRowShown="0">
+  <autoFilter ref="A1:C13" xr:uid="{D400418E-8DEA-4B99-B092-AE242FB87237}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ED3CACA3-B101-4CF1-9801-FAE6D2E77F95}" name="care_category"/>
+    <tableColumn id="2" xr3:uid="{C8703482-FDBE-460A-8F1B-0E3527EA1223}" name="months"/>
+    <tableColumn id="3" xr3:uid="{DD6CAC53-9698-44D0-8446-8C139EE5D882}" name="vehicle_types"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2FF0AB03-56FE-475B-B1B1-910C83EEE421}" name="Table3" displayName="Table3" ref="A1:H21" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:H21" xr:uid="{2FF0AB03-56FE-475B-B1B1-910C83EEE421}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C8DBEC8B-3046-4DBD-B016-A8E422ADAEE6}" name="callsign" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{D5A51554-25D9-42A4-82A7-1DC20B1D5C7F}" name="category" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{083D7748-F407-4874-AEE3-F57C80BB60CB}" name="vehicle_type" dataDxfId="14">
-      <calculatedColumnFormula>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{F8436158-780C-4799-95D0-FA534C9C1BBA}" name="callsign_group" dataDxfId="13">
-      <calculatedColumnFormula>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{748FACE2-04C4-49AA-860C-6DC2CA8F9616}" name="summer_start" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{57A2D311-6390-401A-9AC0-6CD26AC91087}" name="winter_start" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{0C1D6883-A527-469B-906E-ACE4ADBD99BC}" name="summer_end" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{CB8009A1-EE5E-4E82-AE4B-A7BB0D34F6B0}" name="winter_end" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6BA1A063-41E7-4CB5-905A-26CF430593FD}" name="Table2" displayName="Table2" ref="A1:E21" totalsRowShown="0" dataDxfId="30">
+  <autoFilter ref="A1:E21" xr:uid="{6BA1A063-41E7-4CB5-905A-26CF430593FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7D94D35B-078E-4674-B1CE-5BDADB0E40F1}" name="registration" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{87F85CD4-4878-4408-8F8D-C0C8BFCBB598}" name="callsign" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{BC63D893-06A9-4498-9E58-C77171B5E712}" name="model" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{8B732E60-F9A5-4A58-B09A-8856C6DCB309}" name="vehicle_type" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{66CD1ACD-7F6F-4500-B475-D2D6F6ED2307}" name="callsign_group" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F3C351CF-682F-4BF7-B3CD-24B10E4A2F0D}" name="Table8" displayName="Table8" ref="B1:D19" totalsRowShown="0">
-  <autoFilter ref="B1:D19" xr:uid="{F3C351CF-682F-4BF7-B3CD-24B10E4A2F0D}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{910E7A2A-0672-402C-B39B-5F4EFFE22D82}" name="vehicle_type" dataDxfId="8">
-      <calculatedColumnFormula>IF(ISBLANK(A2),"", VLOOKUP(A2,callsign_registration_lookup!C1:E6,2,FALSE))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2FF0AB03-56FE-475B-B1B1-910C83EEE421}" name="Table3" displayName="Table3" ref="A1:H21" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="A1:H21" xr:uid="{2FF0AB03-56FE-475B-B1B1-910C83EEE421}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C8DBEC8B-3046-4DBD-B016-A8E422ADAEE6}" name="callsign" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{D5A51554-25D9-42A4-82A7-1DC20B1D5C7F}" name="category" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{083D7748-F407-4874-AEE3-F57C80BB60CB}" name="vehicle_type" dataDxfId="21">
+      <calculatedColumnFormula>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D8B7BF02-3B19-4DC4-B9A4-EDEC06128AD9}" name="service_schedule_months" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{52C2F997-5183-4694-B686-C7FFF875B647}" name="service_duration_weeks" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{F8436158-780C-4799-95D0-FA534C9C1BBA}" name="callsign_group" dataDxfId="20">
+      <calculatedColumnFormula>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{748FACE2-04C4-49AA-860C-6DC2CA8F9616}" name="summer_start" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{57A2D311-6390-401A-9AC0-6CD26AC91087}" name="winter_start" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{0C1D6883-A527-469B-906E-ACE4ADBD99BC}" name="summer_end" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{CB8009A1-EE5E-4E82-AE4B-A7BB0D34F6B0}" name="winter_end" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F3C351CF-682F-4BF7-B3CD-24B10E4A2F0D}" name="Table8" displayName="Table8" ref="B1:D19" totalsRowShown="0">
+  <autoFilter ref="B1:D19" xr:uid="{F3C351CF-682F-4BF7-B3CD-24B10E4A2F0D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{910E7A2A-0672-402C-B39B-5F4EFFE22D82}" name="vehicle_type" dataDxfId="15">
+      <calculatedColumnFormula>IF(ISBLANK(A2),"", VLOOKUP(A2,callsign_registration_lookup!C1:E6,2,FALSE))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{D8B7BF02-3B19-4DC4-B9A4-EDEC06128AD9}" name="service_schedule_months" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{52C2F997-5183-4694-B686-C7FFF875B647}" name="service_duration_weeks" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9E81A306-310C-4AC1-8FE4-2760D8CC7873}" name="Table4" displayName="Table4" ref="A1:B5" totalsRowShown="0">
   <autoFilter ref="A1:B5" xr:uid="{9E81A306-310C-4AC1-8FE4-2760D8CC7873}"/>
   <tableColumns count="2">
@@ -658,46 +854,48 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B52178EC-48A3-4EAB-A281-FC4D4E29EBFD}" name="Table11" displayName="Table11" ref="A1:C7" totalsRowShown="0">
   <autoFilter ref="A1:C7" xr:uid="{B52178EC-48A3-4EAB-A281-FC4D4E29EBFD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{309A14F6-9A64-48F1-9FAE-814E60D5F781}" name="time" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{EB9F8E5F-5B1B-4C3B-B477-7D6B1C11C11F}" name="min_value_mins" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{AA844072-6D2B-4C5F-AAB4-2FA58A23BD97}" name="max_value_mins" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{447F2987-19D0-4529-9F11-F3A4C3B081CC}" name="Table10" displayName="Table10" ref="B1:B20" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="B1:B20" xr:uid="{447F2987-19D0-4529-9F11-F3A4C3B081CC}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3F69728E-661E-4266-B4A5-B5ECD8439827}" name="last_service" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{309A14F6-9A64-48F1-9FAE-814E60D5F781}" name="time" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{EB9F8E5F-5B1B-4C3B-B477-7D6B1C11C11F}" name="min_value_mins" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{AA844072-6D2B-4C5F-AAB4-2FA58A23BD97}" name="max_value_mins" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2677EC5-725F-4393-AF15-F56183802269}" name="Table1" displayName="Table1" ref="A1:B21" totalsRowShown="0">
-  <autoFilter ref="A1:B21" xr:uid="{E2677EC5-725F-4393-AF15-F56183802269}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{99B5D3F1-FB03-439A-8D7C-566528BE4775}" name="parameter"/>
-    <tableColumn id="2" xr3:uid="{BC693C23-ACAE-4C24-89FD-3BA288AA600E}" name="value" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{447F2987-19D0-4529-9F11-F3A4C3B081CC}" name="Table10" displayName="Table10" ref="B1:B20" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="B1:B20" xr:uid="{447F2987-19D0-4529-9F11-F3A4C3B081CC}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{3F69728E-661E-4266-B4A5-B5ECD8439827}" name="last_service" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D400418E-8DEA-4B99-B092-AE242FB87237}" name="Table6" displayName="Table6" ref="A1:C13" totalsRowShown="0">
-  <autoFilter ref="A1:C13" xr:uid="{D400418E-8DEA-4B99-B092-AE242FB87237}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{939FF914-839F-4D5E-89CB-E52F851CCBAB}" name="Table5" displayName="Table5" ref="A1:C71" totalsRowShown="0">
+  <autoFilter ref="A1:C71" xr:uid="{42097D3F-3BEA-464C-9C83-98399518AAC6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{ED3CACA3-B101-4CF1-9801-FAE6D2E77F95}" name="care_category"/>
-    <tableColumn id="2" xr3:uid="{C8703482-FDBE-460A-8F1B-0E3527EA1223}" name="months"/>
-    <tableColumn id="3" xr3:uid="{DD6CAC53-9698-44D0-8446-8C139EE5D882}" name="vehicle_types"/>
+    <tableColumn id="1" xr3:uid="{E89CB45D-5D7E-4A5A-99D3-B19803D3DD49}" name="year" dataDxfId="7">
+      <calculatedColumnFormula>IF(ISBLANK(B2), "", YEAR(B2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{BF797A22-F91A-4919-B498-21656CFE79E8}" name="start_date" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{11F28688-6DBE-4604-9CAE-20E7428A6309}" name="end_date" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2677EC5-725F-4393-AF15-F56183802269}" name="Table1" displayName="Table1" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8" xr:uid="{E2677EC5-725F-4393-AF15-F56183802269}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{99B5D3F1-FB03-439A-8D7C-566528BE4775}" name="parameter" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{BC693C23-ACAE-4C24-89FD-3BA288AA600E}" name="value" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1019,23 +1217,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB9AD58-A9D7-4149-91B4-DFF84AC6C7A7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="214.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="EBoztaaJ8CCnIFibwwFDOOcRNJgb2uolviDu9venWz5sPk9lbdSx6wA+MuPtN/AQKuv/D1iOzroq2ZKo1WnK9w==" saltValue="Mo9VhBz3eSPGRgWyG+LLaA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B29D2C-108A-4FF4-8D5D-63ADEC51A17D}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EE6093-5A5B-497D-B656-3B9060F09677}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,188 +1408,188 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1252,27 +1611,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E65222-ED7F-4312-B1BC-43F34F9AFBA9}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1298,355 +1657,355 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v>helicopter</v>
       </c>
-      <c r="D2" s="2">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
+      <c r="D2" s="1">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
         <v>70</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
         <v>6</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="8">
         <v>8</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="8">
         <v>2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v>car</v>
       </c>
-      <c r="D3" s="2">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
+      <c r="D3" s="1">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
         <v>70</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="8">
         <v>6</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="8">
         <v>8</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="8">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v>helicopter</v>
       </c>
-      <c r="D4" s="2">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
+      <c r="D4" s="1">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
         <v>71</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="8">
         <v>7</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="8">
         <v>7</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="8">
         <v>19</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v>car</v>
       </c>
-      <c r="D5" s="2">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
+      <c r="D5" s="1">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
         <v>71</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="8">
         <v>6</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>7</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="8">
         <v>21</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="str">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D9" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="str">
+      <c r="D9" s="1" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D10" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="str">
+      <c r="D10" s="1" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D11" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="str">
+      <c r="D11" s="1" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D12" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="str">
+      <c r="D12" s="1" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D13" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="str">
+      <c r="D13" s="1" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D14" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="str">
+      <c r="D14" s="1" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D15" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="str">
+      <c r="D15" s="1" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D16" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="str">
+      <c r="D16" s="1" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D17" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2" t="str">
+      <c r="D17" s="1" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D18" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2" t="str">
+      <c r="D18" s="1" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D19" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2" t="str">
+      <c r="D19" s="1" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D20" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2" t="str">
+      <c r="D20" s="1" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="1" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[callsign]]), "", VLOOKUP(Table3[[#This Row],[callsign]],Table2[[#All],[callsign]:[vehicle_type]],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D21" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callisign_group]],4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="D21" s="1" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[callsign]]),"",VLOOKUP(Table3[[#This Row],[callsign]],Table2[[callsign]:[callsign_group]],4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1668,24 +2027,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4472C9B-3E4C-4DDF-8989-3DE050C2A20C}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D19" sqref="C2:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
@@ -1698,249 +2057,186 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="str" cm="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="str" cm="1">
         <f t="array" ref="A2:A4">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Table2[model], Table2[model] &lt;&gt; ""))</f>
         <v>Airbus H145</v>
       </c>
-      <c r="B2" s="6" t="str">
+      <c r="B2" s="4" t="str">
         <f>IF(ISBLANK(A2),"", VLOOKUP(A2,callsign_registration_lookup!C1:E6,2,FALSE))</f>
         <v>helicopter</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="str">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str">
         <v>Airbus EC135</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="4" t="str">
         <f>IF(ISBLANK(A3),"", VLOOKUP(A3,callsign_registration_lookup!C2:E7,2,FALSE))</f>
         <v>helicopter</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="str">
         <v>Volvo XC90</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="4" t="str">
         <f>IF(ISBLANK(A4),"", VLOOKUP(A4,callsign_registration_lookup!C3:E8,2,FALSE))</f>
         <v>car</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="str">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="str">
         <f>IF(ISBLANK(A5),"", VLOOKUP(A5,callsign_registration_lookup!C4:E9,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="str">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="str">
         <f>IF(ISBLANK(A6),"", VLOOKUP(A6,callsign_registration_lookup!C5:E10,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="str">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="str">
         <f>IF(ISBLANK(A7),"", VLOOKUP(A7,callsign_registration_lookup!C6:E11,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="str">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="str">
         <f>IF(ISBLANK(A8),"", VLOOKUP(A8,callsign_registration_lookup!C7:E12,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="str">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="str">
         <f>IF(ISBLANK(A9),"", VLOOKUP(A9,callsign_registration_lookup!C8:E13,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="str">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="str">
         <f>IF(ISBLANK(A10),"", VLOOKUP(A10,callsign_registration_lookup!C9:E14,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="str">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="str">
         <f>IF(ISBLANK(A11),"", VLOOKUP(A11,callsign_registration_lookup!C10:E15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="str">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="str">
         <f>IF(ISBLANK(A12),"", VLOOKUP(A12,callsign_registration_lookup!C11:E16,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="str">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="str">
         <f>IF(ISBLANK(A13),"", VLOOKUP(A13,callsign_registration_lookup!C12:E17,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="str">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="str">
         <f>IF(ISBLANK(A14),"", VLOOKUP(A14,callsign_registration_lookup!C13:E18,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="str">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="str">
         <f>IF(ISBLANK(A15),"", VLOOKUP(A15,callsign_registration_lookup!C14:E19,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="str">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="str">
         <f>IF(ISBLANK(A16),"", VLOOKUP(A16,callsign_registration_lookup!C15:E20,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="str">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="str">
         <f>IF(ISBLANK(A17),"", VLOOKUP(A17,callsign_registration_lookup!C16:E21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="str">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="str">
         <f>IF(ISBLANK(A18),"", VLOOKUP(A18,callsign_registration_lookup!C17:E22,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="str">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="str">
         <f>IF(ISBLANK(A19),"", VLOOKUP(A19,callsign_registration_lookup!C18:E23,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8280D3-5117-4A4B-955E-D11A20FA9E1E}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6">
-        <f>MONTH(1&amp;B2)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6">
-        <f>MONTH(1&amp;B3)</f>
-        <v>9</v>
-      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1951,21 +2247,84 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8280D3-5117-4A4B-955E-D11A20FA9E1E}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
+        <f>MONTH(1&amp;B2)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4">
+        <f>MONTH(1&amp;B3)</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD2B715-A401-4418-8566-F4AD33A9A218}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1976,69 +2335,69 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="8">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>89</v>
       </c>
     </row>
@@ -2056,247 +2415,122 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC77B55E-07E5-4BCD-A568-968CBEC9848C}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="str" cm="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="str" cm="1">
         <f t="array" ref="A2:A5">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Table2[registration], Table2[registration] &lt;&gt; ""))</f>
         <v>g-daas</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="10">
         <v>44565</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="str">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str">
         <v>g-daan</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="10">
         <v>44640</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="str">
         <v>cc70</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="str">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="str">
         <v>cc71</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B548ABE7-8EC4-45E9-9646-4F60214B4C5B}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="9">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="9">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="11">
-        <v>45529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
       <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2307,102 +2541,854 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B29D2C-108A-4FF4-8D5D-63ADEC51A17D}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E92762A-5124-4AC6-8A48-6B98CC33F144}">
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <f t="shared" ref="A2:A65" si="0">IF(ISBLANK(B2), "", YEAR(B2))</f>
+        <v>2023</v>
+      </c>
+      <c r="B2" s="7">
+        <v>44927</v>
+      </c>
+      <c r="C2" s="7">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="B3" s="7">
+        <v>44970</v>
+      </c>
+      <c r="C3" s="7">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="B4" s="7">
+        <v>45019</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="B5" s="7">
+        <v>45075</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45138</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="B7" s="7">
+        <v>45222</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="B8" s="7">
+        <v>45278</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45292</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="B10" s="7">
+        <v>45334</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45383</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="B12" s="7">
+        <v>45439</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45502</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45593</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="B15" s="7">
+        <v>45649</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="B16" s="7">
+        <v>45658</v>
+      </c>
+      <c r="C16" s="7">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="B17" s="7">
+        <v>45705</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="B18" s="7">
+        <v>45754</v>
+      </c>
+      <c r="C18" s="7">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="B19" s="7">
+        <v>45803</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="B20" s="7">
+        <v>45866</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="B21" s="7">
+        <v>45957</v>
+      </c>
+      <c r="C21" s="7">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="B22" s="7">
+        <v>46013</v>
+      </c>
+      <c r="C22" s="7">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="B23" s="7">
+        <v>46023</v>
+      </c>
+      <c r="C23" s="7">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="B24" s="7">
+        <v>46069</v>
+      </c>
+      <c r="C24" s="7">
+        <v>46075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="B25" s="7">
+        <v>46115</v>
+      </c>
+      <c r="C25" s="7">
+        <v>46131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="B26" s="7">
+        <v>46167</v>
+      </c>
+      <c r="C26" s="7">
+        <v>46173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="B27" s="7">
+        <v>46230</v>
+      </c>
+      <c r="C27" s="7">
+        <v>46267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="B28" s="7">
+        <v>46321</v>
+      </c>
+      <c r="C28" s="7">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="B29" s="7">
+        <v>46377</v>
+      </c>
+      <c r="C29" s="7">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="B30" s="7">
+        <v>46388</v>
+      </c>
+      <c r="C30" s="7">
+        <v>46390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="B31" s="7">
+        <v>46433</v>
+      </c>
+      <c r="C31" s="7">
+        <v>46439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="B32" s="7">
+        <v>46472</v>
+      </c>
+      <c r="C32" s="7">
+        <v>46488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="B33" s="7">
+        <v>46538</v>
+      </c>
+      <c r="C33" s="7">
+        <v>46544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="B34" s="7">
+        <v>46596</v>
+      </c>
+      <c r="C34" s="7">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="B35" s="7">
+        <v>46685</v>
+      </c>
+      <c r="C35" s="7">
+        <v>46691</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="B36" s="7">
+        <v>46744</v>
+      </c>
+      <c r="C36" s="7">
+        <v>46752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="str">
+        <f t="shared" ref="A66:A71" si="1">IF(ISBLANK(B66), "", YEAR(B66))</f>
+        <v/>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B548ABE7-8EC4-45E9-9646-4F60214B4C5B}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="11">
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
